--- a/Translator/excel/Missing/Missing_Japanese.xlsx
+++ b/Translator/excel/Missing/Missing_Japanese.xlsx
@@ -214,16 +214,16 @@
     <t>&lt;tooltips&gt;&lt;get_level&gt;</t>
   </si>
   <si>
-    <t>&lt;tooltips&gt;&lt;get_level param="'mic'"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;tooltips&gt;&lt;get_level param="'sampler'"&gt;</t>
+    <t>&lt;tooltips&gt;&lt;get_level param=''mic''&gt;</t>
+  </si>
+  <si>
+    <t>&lt;tooltips&gt;&lt;get_level param=''sampler''&gt;</t>
   </si>
   <si>
     <t>&lt;tooltips&gt;&lt;get_vu_meter&gt;</t>
   </si>
   <si>
-    <t>&lt;tooltips&gt;&lt;get_vu_meter param="'mic'"&gt;</t>
+    <t>&lt;tooltips&gt;&lt;get_vu_meter param=''mic''&gt;</t>
   </si>
   <si>
     <t>&lt;Actions&gt;&lt;dualdeckmode_decks&gt;</t>

--- a/Translator/excel/Missing/Missing_Japanese.xlsx
+++ b/Translator/excel/Missing/Missing_Japanese.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="137">
   <si>
     <t>English</t>
   </si>
@@ -224,99 +224,6 @@
   </si>
   <si>
     <t>&lt;tooltips&gt;&lt;get_vu_meter param=''mic''&gt;</t>
-  </si>
-  <si>
-    <t>&lt;Actions&gt;&lt;dualdeckmode_decks&gt;</t>
-  </si>
-  <si>
-    <t>&lt;Settings&gt;&lt;SkinFPS&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ContextMenu&gt;&lt;LoadTagS&gt;</t>
-  </si>
-  <si>
-    <t>&lt;Config&gt;&lt;Connectdevice&gt;</t>
-  </si>
-  <si>
-    <t>&lt;Config&gt;&lt;deck&gt;</t>
-  </si>
-  <si>
-    <t>&lt;Config&gt;&lt;description&gt;</t>
-  </si>
-  <si>
-    <t>&lt;Config&gt;&lt;Reconnectdevice&gt;</t>
-  </si>
-  <si>
-    <t>&lt;Config&gt;&lt;Rescandevices&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ContextMenu&gt;&lt;deckI&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ContextMenu&gt;&lt;delete&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ContextMenu&gt;&lt;deleteFromTag&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ContextMenu&gt;&lt;deleteLyrics&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ContextMenu&gt;&lt;detachImage&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ContextMenu&gt;&lt;ResetTodefault&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ContextMenu&gt;&lt;SamplerOutputAlldecks&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ContextMenu&gt;&lt;SamplerOutputdeckI&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ContextMenu&gt;&lt;SamplerOutputTriggerdeck&gt;</t>
-  </si>
-  <si>
-    <t>&lt;Messages&gt;&lt;deletePOI&gt;</t>
-  </si>
-  <si>
-    <t>&lt;Messages&gt;&lt;deleteSample&gt;</t>
-  </si>
-  <si>
-    <t>&lt;Messages&gt;&lt;deleteSampleFile&gt;</t>
-  </si>
-  <si>
-    <t>&lt;Settings&gt;&lt;audioAutodetect&gt;</t>
-  </si>
-  <si>
-    <t>&lt;Settings&gt;&lt;automixDualdeck&gt;</t>
-  </si>
-  <si>
-    <t>&lt;Settings&gt;&lt;disableBuiltIndefinitions&gt;</t>
-  </si>
-  <si>
-    <t>&lt;Settings&gt;&lt;filterdefaultResonance&gt;</t>
-  </si>
-  <si>
-    <t>&lt;Settings&gt;&lt;historydelay&gt;</t>
-  </si>
-  <si>
-    <t>&lt;Settings&gt;&lt;loopdefault&gt;</t>
-  </si>
-  <si>
-    <t>&lt;Settings&gt;&lt;loopRolldefault&gt;</t>
-  </si>
-  <si>
-    <t>&lt;Settings&gt;&lt;samplerdefaultLoopMode&gt;</t>
-  </si>
-  <si>
-    <t>&lt;Settings&gt;&lt;tooltipdelay&gt;</t>
-  </si>
-  <si>
-    <t>&lt;Settings&gt;&lt;videodelay&gt;</t>
-  </si>
-  <si>
-    <t>&lt;Settings&gt;&lt;autoMixBeatMatchOnfade&gt;</t>
   </si>
   <si>
     <t>add or remove a hash tag from user1, user2 or comment of the currently browsed file: "browsed_song_hashtag 'user 1' '#high_energy'"</t>
@@ -906,7 +813,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C99"/>
+  <dimension ref="A1:C68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -928,7 +835,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>101</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -936,7 +843,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>102</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -944,7 +851,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>103</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -952,7 +859,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>104</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -960,7 +867,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>105</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -968,7 +875,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -976,7 +883,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -984,7 +891,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>108</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -992,7 +899,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>109</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1000,7 +907,7 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>110</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1008,7 +915,7 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>111</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1016,7 +923,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1024,7 +931,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>113</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1032,7 +939,7 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>114</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1040,7 +947,7 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>115</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1048,7 +955,7 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>116</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1056,7 +963,7 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1064,7 +971,7 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1072,7 +979,7 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1080,7 +987,7 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1088,7 +995,7 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1096,7 +1003,7 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>122</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1104,7 +1011,7 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1112,7 +1019,7 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>124</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1120,7 +1027,7 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1128,7 +1035,7 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1136,7 +1043,7 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>127</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1144,7 +1051,7 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1152,7 +1059,7 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1160,7 +1067,7 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1168,7 +1075,7 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>131</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1176,7 +1083,7 @@
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1184,7 +1091,7 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>133</v>
+        <v>102</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1192,7 +1099,7 @@
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>134</v>
+        <v>103</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1200,7 +1107,7 @@
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>135</v>
+        <v>104</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1208,7 +1115,7 @@
         <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>136</v>
+        <v>105</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1216,7 +1123,7 @@
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>137</v>
+        <v>106</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1224,7 +1131,7 @@
         <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>138</v>
+        <v>107</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1232,7 +1139,7 @@
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>139</v>
+        <v>108</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1240,7 +1147,7 @@
         <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>140</v>
+        <v>109</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1248,7 +1155,7 @@
         <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>141</v>
+        <v>110</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1256,7 +1163,7 @@
         <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>142</v>
+        <v>111</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1264,7 +1171,7 @@
         <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>143</v>
+        <v>112</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1272,7 +1179,7 @@
         <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>144</v>
+        <v>113</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1280,7 +1187,7 @@
         <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>145</v>
+        <v>114</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1288,7 +1195,7 @@
         <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>146</v>
+        <v>115</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1296,7 +1203,7 @@
         <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>147</v>
+        <v>116</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1304,7 +1211,7 @@
         <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>148</v>
+        <v>117</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1312,7 +1219,7 @@
         <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>149</v>
+        <v>118</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1320,7 +1227,7 @@
         <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>150</v>
+        <v>119</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1328,7 +1235,7 @@
         <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>151</v>
+        <v>120</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1336,7 +1243,7 @@
         <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>152</v>
+        <v>121</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1344,7 +1251,7 @@
         <v>55</v>
       </c>
       <c r="B54" t="s">
-        <v>153</v>
+        <v>122</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1352,7 +1259,7 @@
         <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>154</v>
+        <v>123</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1360,7 +1267,7 @@
         <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1368,7 +1275,7 @@
         <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>156</v>
+        <v>125</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1376,7 +1283,7 @@
         <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>157</v>
+        <v>126</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1384,7 +1291,7 @@
         <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>158</v>
+        <v>127</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1392,7 +1299,7 @@
         <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>159</v>
+        <v>128</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1400,7 +1307,7 @@
         <v>62</v>
       </c>
       <c r="B61" t="s">
-        <v>160</v>
+        <v>129</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1408,7 +1315,7 @@
         <v>63</v>
       </c>
       <c r="B62" t="s">
-        <v>161</v>
+        <v>130</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1416,7 +1323,7 @@
         <v>64</v>
       </c>
       <c r="B63" t="s">
-        <v>162</v>
+        <v>131</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1424,7 +1331,7 @@
         <v>65</v>
       </c>
       <c r="B64" t="s">
-        <v>163</v>
+        <v>132</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1432,7 +1339,7 @@
         <v>66</v>
       </c>
       <c r="B65" t="s">
-        <v>164</v>
+        <v>133</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1440,7 +1347,7 @@
         <v>67</v>
       </c>
       <c r="B66" t="s">
-        <v>165</v>
+        <v>134</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1448,7 +1355,7 @@
         <v>68</v>
       </c>
       <c r="B67" t="s">
-        <v>166</v>
+        <v>135</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1456,162 +1363,7 @@
         <v>69</v>
       </c>
       <c r="B68" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1">
-      <c r="A81" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1">
-      <c r="A82" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1">
-      <c r="A83" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1">
-      <c r="A84" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1">
-      <c r="A85" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1">
-      <c r="A86" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1">
-      <c r="A87" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1">
-      <c r="A88" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1">
-      <c r="A89" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1">
-      <c r="A90" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1">
-      <c r="A91" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1">
-      <c r="A92" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1">
-      <c r="A93" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1">
-      <c r="A94" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1">
-      <c r="A95" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1">
-      <c r="A96" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1">
-      <c r="A97" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1">
-      <c r="A98" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1">
-      <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
